--- a/tests/configuration_files/data/files.xlsx
+++ b/tests/configuration_files/data/files.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA3722-FD4A-4D24-ABAF-56015217591E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23DF23-4862-4623-B30D-664E25901F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Link</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Table name</t>
+  </si>
+  <si>
+    <t>Upload</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,16 +116,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +435,7 @@
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,8 +454,11 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -450,8 +468,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
